--- a/ApplicationTestData/PriceRule.xlsx
+++ b/ApplicationTestData/PriceRule.xlsx
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,7 +912,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ApplicationTestData/PriceRule.xlsx
+++ b/ApplicationTestData/PriceRule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>userName</t>
   </si>
@@ -183,9 +183,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>R-LS5052</t>
-  </si>
-  <si>
     <t>https://qadealeradminv2fr.izmocars.com/processQue.htm</t>
   </si>
   <si>
@@ -202,6 +199,21 @@
   </si>
   <si>
     <t>http://citroen-annemasse.stg-eudemosite.com/vehicules-neufs-stock-fr-fr.htm</t>
+  </si>
+  <si>
+    <t>R-LY3232</t>
+  </si>
+  <si>
+    <t>PriceRuleURL</t>
+  </si>
+  <si>
+    <t>ScUrl</t>
+  </si>
+  <si>
+    <t>https://qadealeradminv2fr.izmocars.com/</t>
+  </si>
+  <si>
+    <t>editInventoryPriceRules.htm?invPriceRuleId=</t>
   </si>
 </sst>
 </file>
@@ -631,7 +643,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -641,7 +653,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -654,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -803,7 +815,7 @@
         <v>50</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>12</v>
@@ -931,7 +943,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -944,7 +956,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>52</v>
@@ -957,10 +969,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +1001,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1000,12 +1012,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ApplicationTestData/PriceRule.xlsx
+++ b/ApplicationTestData/PriceRule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>userName</t>
   </si>
@@ -201,9 +201,6 @@
     <t>http://citroen-annemasse.stg-eudemosite.com/vehicules-neufs-stock-fr-fr.htm</t>
   </si>
   <si>
-    <t>R-LY3232</t>
-  </si>
-  <si>
     <t>PriceRuleURL</t>
   </si>
   <si>
@@ -214,6 +211,18 @@
   </si>
   <si>
     <t>editInventoryPriceRules.htm?invPriceRuleId=</t>
+  </si>
+  <si>
+    <t>R-ME5565</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>citroen-annecy.stg-eudemosite.com</t>
+  </si>
+  <si>
+    <t>http://citroen-annecy.stg-eudemosite.com/vehicules-neufs-stock-fr-fr.htm</t>
   </si>
 </sst>
 </file>
@@ -624,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,6 +665,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -667,7 +681,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1">
@@ -921,10 +935,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -972,7 +986,15 @@
         <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1026,18 +1048,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ApplicationTestData/PriceRule.xlsx
+++ b/ApplicationTestData/PriceRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>8000</t>
   </si>
   <si>
-    <t>27/02/2018</t>
-  </si>
-  <si>
     <t>VN052756</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>http://citroen-annecy.stg-eudemosite.com/vehicules-neufs-stock-fr-fr.htm</t>
+  </si>
+  <si>
+    <t>13/03/2018</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,7 +652,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -662,12 +662,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,7 +752,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
@@ -776,13 +776,13 @@
         <v>36</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -805,7 +805,7 @@
         <v>48</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="4" t="s">
@@ -826,16 +826,16 @@
         <v>37</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1">
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -957,7 +957,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -970,31 +970,31 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1048,18 +1048,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
